--- a/docs/Expense Data Outline.xlsx
+++ b/docs/Expense Data Outline.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/555b4b563df01d52/Bottom Line Budgeting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{266591FF-9276-4E9B-99F3-F153A76E4803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{266591FF-9276-4E9B-99F3-F153A76E4803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB2D6E76-EF3A-477C-AC0C-1A24A543CBF9}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C275CF63-FFB3-4A38-90CF-B958D3806680}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C275CF63-FFB3-4A38-90CF-B958D3806680}"/>
   </bookViews>
   <sheets>
-    <sheet name="Exspense Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Discretionary Expenses" sheetId="1" r:id="rId1"/>
+    <sheet name="Reocurring Expenses" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Exspense Report'!$F$1:$F$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Discretionary Expenses'!$F$1:$F$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,8 +64,35 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={2504152A-60D5-47A1-8129-82E062F919B8}</author>
+    <author>tc={DAEB6AD6-10EA-4FAF-92DF-66D4513146C0}</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{2504152A-60D5-47A1-8129-82E062F919B8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    These would allow the user to make a nickname</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{DAEB6AD6-10EA-4FAF-92DF-66D4513146C0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Created By User</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>Month</t>
   </si>
@@ -189,20 +217,53 @@
     <t>Miscellaneous</t>
   </si>
   <si>
-    <t>Childrean</t>
-  </si>
-  <si>
     <t>Pet</t>
   </si>
   <si>
     <t>Transportation</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Month Range</t>
+  </si>
+  <si>
+    <t>Day Of Month</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Mortgage</t>
+  </si>
+  <si>
+    <t>Home Insurance</t>
+  </si>
+  <si>
+    <t>Property Taxes</t>
+  </si>
+  <si>
+    <t>Extra Payment</t>
+  </si>
+  <si>
+    <t>Bills</t>
+  </si>
+  <si>
+    <t>Subscriptions</t>
+  </si>
+  <si>
+    <t>Renters Insurance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,16 +291,59 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -256,22 +360,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="5" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="8">
+    <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
+    <cellStyle name="20% - Accent4" xfId="3" builtinId="42"/>
+    <cellStyle name="20% - Accent5" xfId="5" builtinId="46"/>
+    <cellStyle name="20% - Accent6" xfId="7" builtinId="50"/>
+    <cellStyle name="40% - Accent4" xfId="4" builtinId="43"/>
+    <cellStyle name="60% - Accent5" xfId="6" builtinId="48"/>
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -607,20 +780,33 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C1" dT="2021-06-06T16:56:27.00" personId="{6D8DEBC5-9AA1-4DFE-9250-EC12DD3C4226}" id="{2504152A-60D5-47A1-8129-82E062F919B8}">
+    <text>These would allow the user to make a nickname</text>
+  </threadedComment>
+  <threadedComment ref="D1" dT="2021-06-06T16:57:12.24" personId="{6D8DEBC5-9AA1-4DFE-9250-EC12DD3C4226}" id="{DAEB6AD6-10EA-4FAF-92DF-66D4513146C0}">
+    <text>Created By User</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D00B77-15E8-4264-94CC-0C3D821F69EF}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -647,7 +833,7 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -661,7 +847,7 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" t="s">
@@ -675,21 +861,21 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>4</v>
       </c>
       <c r="C5" t="s">
@@ -703,7 +889,7 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>5</v>
       </c>
       <c r="C6" t="s">
@@ -717,7 +903,7 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>6</v>
       </c>
       <c r="C7" t="s">
@@ -731,7 +917,7 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -745,7 +931,7 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>8</v>
       </c>
       <c r="F9" t="s">
@@ -756,7 +942,7 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>9</v>
       </c>
       <c r="F10" t="s">
@@ -767,7 +953,7 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>10</v>
       </c>
       <c r="F11" t="s">
@@ -778,7 +964,7 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>11</v>
       </c>
       <c r="F12" t="s">
@@ -789,7 +975,7 @@
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>12</v>
       </c>
       <c r="F13" t="s">
@@ -797,7 +983,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14">
+      <c r="B14" s="2">
         <v>13</v>
       </c>
       <c r="F14" t="s">
@@ -805,15 +991,15 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15">
+      <c r="B15" s="2">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16">
+      <c r="B16" s="2">
         <v>15</v>
       </c>
       <c r="F16" t="s">
@@ -821,7 +1007,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17">
+      <c r="B17" s="2">
         <v>16</v>
       </c>
       <c r="F17" t="s">
@@ -829,7 +1015,7 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18">
+      <c r="B18" s="2">
         <v>17</v>
       </c>
       <c r="F18" t="s">
@@ -837,15 +1023,15 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19">
+      <c r="B19" s="2">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20">
+      <c r="B20" s="2">
         <v>19</v>
       </c>
       <c r="F20" t="s">
@@ -853,62 +1039,62 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21">
+      <c r="B21" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22">
+      <c r="B22" s="2">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23">
+      <c r="B23" s="2">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24">
+      <c r="B24" s="2">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25">
+      <c r="B25" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26">
+      <c r="B26" s="2">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27">
+      <c r="B27" s="2">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28">
+      <c r="B28" s="2">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29">
+      <c r="B29" s="2">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30">
+      <c r="B30" s="2">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31">
+      <c r="B31" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32">
+      <c r="B32" s="2">
         <v>31</v>
       </c>
     </row>
@@ -920,6 +1106,253 @@
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93986363-349C-4DC2-A148-9F4BACB53A99}">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
